--- a/Laboratory/20211123_입찰자동화툴Test Sample/01_Building List_Pilot Project_2021_1211_mk.xlsx
+++ b/Laboratory/20211123_입찰자동화툴Test Sample/01_Building List_Pilot Project_2021_1211_mk.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjmk0\Downloads\MK\mQ\Laboratory\20211123_입찰자동화툴Test Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\Laboratory\20211123_입찰자동화툴Test Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954E618-2976-4AEF-9727-029A0B8504C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Building List" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Building List'!$B$2:$BS$100</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3347,7 +3346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
@@ -4071,7 +4070,7 @@
   <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4353,15 +4352,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="19" ySplit="5" topLeftCell="AE51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="19" ySplit="5" topLeftCell="AD72" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Z11" sqref="Z11"/>
       <selection pane="topRight" activeCell="Z11" sqref="Z11"/>
       <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
-      <selection pane="bottomRight" activeCell="R59" sqref="R59"/>
+      <selection pane="bottomRight" activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9447,9 +9446,7 @@
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
       <c r="AE44" s="28"/>
-      <c r="AF44" s="28" t="s">
-        <v>667</v>
-      </c>
+      <c r="AF44" s="28"/>
       <c r="AG44" s="28"/>
       <c r="AH44" s="29"/>
       <c r="AI44" s="29"/>
@@ -10090,7 +10087,9 @@
       <c r="M50" s="48">
         <v>5.5</v>
       </c>
-      <c r="N50" s="48"/>
+      <c r="N50" s="48">
+        <v>2.7</v>
+      </c>
       <c r="O50" s="49"/>
       <c r="P50" s="48">
         <f t="shared" ref="P50:P52" si="0">K50*L50</f>
@@ -12533,7 +12532,9 @@
       <c r="M72" s="48">
         <v>3.5</v>
       </c>
-      <c r="N72" s="48"/>
+      <c r="N72" s="48">
+        <v>2.7</v>
+      </c>
       <c r="O72" s="49"/>
       <c r="P72" s="48">
         <f t="shared" si="2"/>
@@ -12645,7 +12646,9 @@
       <c r="M73" s="48">
         <v>3.5</v>
       </c>
-      <c r="N73" s="48"/>
+      <c r="N73" s="48">
+        <v>2.7</v>
+      </c>
       <c r="O73" s="49"/>
       <c r="P73" s="48">
         <f t="shared" si="2"/>
@@ -12859,7 +12862,9 @@
       <c r="M75" s="48">
         <v>3.5</v>
       </c>
-      <c r="N75" s="48"/>
+      <c r="N75" s="48">
+        <v>2.7</v>
+      </c>
       <c r="O75" s="49"/>
       <c r="P75" s="48">
         <f t="shared" si="2"/>
@@ -12965,7 +12970,9 @@
       <c r="M76" s="48">
         <v>3.5</v>
       </c>
-      <c r="N76" s="48"/>
+      <c r="N76" s="48">
+        <v>2.7</v>
+      </c>
       <c r="O76" s="49"/>
       <c r="P76" s="48">
         <f t="shared" si="2"/>
@@ -13073,7 +13080,9 @@
       <c r="M77" s="48">
         <v>3.5</v>
       </c>
-      <c r="N77" s="48"/>
+      <c r="N77" s="48">
+        <v>2.7</v>
+      </c>
       <c r="O77" s="49"/>
       <c r="P77" s="48">
         <f t="shared" si="2"/>
@@ -13505,7 +13514,9 @@
       <c r="M81" s="48">
         <v>3.5</v>
       </c>
-      <c r="N81" s="48"/>
+      <c r="N81" s="48">
+        <v>2.7</v>
+      </c>
       <c r="O81" s="49"/>
       <c r="P81" s="48">
         <f t="shared" si="2"/>
@@ -13609,7 +13620,9 @@
       <c r="M82" s="48">
         <v>3.5</v>
       </c>
-      <c r="N82" s="48"/>
+      <c r="N82" s="48">
+        <v>2.7</v>
+      </c>
       <c r="O82" s="49"/>
       <c r="P82" s="48">
         <f t="shared" si="2"/>
@@ -14256,7 +14269,9 @@
         <v>666</v>
       </c>
       <c r="AE88" s="28"/>
-      <c r="AF88" s="28"/>
+      <c r="AF88" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="AG88" s="28"/>
       <c r="AH88" s="29"/>
       <c r="AI88" s="29"/>
@@ -15592,7 +15607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -15600,7 +15615,7 @@
       <selection activeCell="Z11" sqref="Z11"/>
       <selection pane="topRight" activeCell="Z11" sqref="Z11"/>
       <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
